--- a/biology/Botanique/Cyclanthales/Cyclanthales.xlsx
+++ b/biology/Botanique/Cyclanthales/Cyclanthales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Cyclanthacées sont une famille de plantes monocotylédones de l'ordre des Pandanales, qui comprend près de 200 espèces réparties en une dizaine de genres.
 Ce sont des arbustes, des lianes ou des plantes herbacées pérennes qui ont pour certains des feuilles composées en forme de palmes. La plupart des espèces de cette famille est originaire des zones tropicales d'Amérique du Sud et d'Amérique centrale.
@@ -513,9 +525,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre Cyclanthus qui dérive du grec κύκλος (kyklos) cercle et άνθος (anthos) fleur, en référence aux inflorescences dont les pièces sont disposées sous forme de disque[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre Cyclanthus qui dérive du grec κύκλος (kyklos) cercle et άνθος (anthos) fleur, en référence aux inflorescences dont les pièces sont disposées sous forme de disque. 
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (14 août 2015)[2] et Angiosperm Phylogeny Website                        (14 août 2015)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (14 août 2015) et Angiosperm Phylogeny Website                        (14 août 2015) :
 Asplundia Harling (1954)
 Carludovica Ruiz &amp; Pav. (1794)
 Chorigyne R.Erikss. (1989)
@@ -559,7 +575,7 @@
 Sphaeradenia (en) Harling (1954)
 Stelestylis (en) Drude (1881)
 Thoracocarpus (en) Harling (1958)
-Selon NCBI  (14 août 2015)[4] :
+Selon NCBI  (14 août 2015) :
 Asplundia
 Carludovica
 Chorigyne
@@ -569,7 +585,7 @@
 Ludovia
 Sphaeradenia
 Thoracocarpus
-Selon DELTA Angio           (14 août 2015)[5] :
+Selon DELTA Angio           (14 août 2015) :
 Asplundia
 Carludovica
 Chorigyne
@@ -582,7 +598,7 @@
 Sphaeradenia
 Stelestylis
 Thoracocarpus
-Selon ITIS      (14 août 2015)[6] :
+Selon ITIS      (14 août 2015) :
 Carludovica Ruiz &amp; Pavón</t>
         </is>
       </c>
